--- a/Help Sheet.xlsx
+++ b/Help Sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Edumantra\Binghamton\1. Spring 2018\Programming Languages\3. Assignment 3\Solution\shree\tetris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE03197-61EE-43D5-B279-9987DD542743}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D687406-B8FE-4349-8F6D-959653B36B4F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{558B4D8E-4984-414E-BEBC-ADDEFF0BFEC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -111,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,6 +255,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,6 +265,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +598,948 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC57165-C272-4096-AD65-E37635868867}">
+  <dimension ref="D1:O83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="10.77734375" style="1"/>
+    <col min="5" max="15" width="15.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21">
+        <v>0</v>
+      </c>
+      <c r="F1" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1" s="21">
+        <v>2</v>
+      </c>
+      <c r="H1" s="21">
+        <v>3</v>
+      </c>
+      <c r="I1" s="21">
+        <v>4</v>
+      </c>
+      <c r="J1" s="21">
+        <v>5</v>
+      </c>
+      <c r="K1" s="21">
+        <v>6</v>
+      </c>
+      <c r="L1" s="21">
+        <v>7</v>
+      </c>
+      <c r="M1" s="21">
+        <v>8</v>
+      </c>
+      <c r="N1" s="21">
+        <v>9</v>
+      </c>
+      <c r="O1" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18">
+        <v>9</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="22">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18">
+        <v>5</v>
+      </c>
+      <c r="G4" s="18">
+        <v>11</v>
+      </c>
+      <c r="H4" s="18">
+        <v>12</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="22">
+        <v>3</v>
+      </c>
+      <c r="E5" s="18">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18">
+        <v>7</v>
+      </c>
+      <c r="G5" s="18">
+        <v>15</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="22">
+        <v>4</v>
+      </c>
+      <c r="E6" s="18">
+        <v>8</v>
+      </c>
+      <c r="F6" s="18">
+        <v>10</v>
+      </c>
+      <c r="G6" s="18">
+        <v>16</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="22">
+        <v>5</v>
+      </c>
+      <c r="E7" s="18">
+        <v>13</v>
+      </c>
+      <c r="F7" s="18">
+        <v>17</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="22">
+        <v>6</v>
+      </c>
+      <c r="E8" s="18">
+        <v>14</v>
+      </c>
+      <c r="F8" s="18">
+        <v>18</v>
+      </c>
+      <c r="G8" s="18">
+        <v>21</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="22">
+        <v>7</v>
+      </c>
+      <c r="E9" s="18">
+        <v>19</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="22">
+        <v>8</v>
+      </c>
+      <c r="E10" s="18">
+        <v>20</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="22">
+        <v>9</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="22">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="22">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="23"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="19"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="19"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+    </row>
+    <row r="81" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0694D600-7A19-4F15-9751-D6948896EDAF}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -585,11 +1551,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,12 +1576,12 @@
         <v>11</v>
       </c>
       <c r="L1" s="2"/>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">

--- a/Help Sheet.xlsx
+++ b/Help Sheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Edumantra\Binghamton\1. Spring 2018\Programming Languages\3. Assignment 3\Solution\shree\tetris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D687406-B8FE-4349-8F6D-959653B36B4F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D01030-CAC8-4D9E-B19B-3315F5B4EA0F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{558B4D8E-4984-414E-BEBC-ADDEFF0BFEC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>y ranges</t>
   </si>
@@ -95,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,6 +258,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,22 +288,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,10 +610,592 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0694D600-7A19-4F15-9751-D6948896EDAF}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="12" width="10.77734375" style="1"/>
+    <col min="13" max="16" width="15.77734375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
+        <f>ABS(D2-10)</f>
+        <v>10</v>
+      </c>
+      <c r="F2" s="13">
+        <f>ABS(D2-11)</f>
+        <v>11</v>
+      </c>
+      <c r="G2" s="7">
+        <f>ABS(D2-11)</f>
+        <v>11</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>60</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E12" si="0">ABS(D3-10)</f>
+        <v>9</v>
+      </c>
+      <c r="F3" s="13">
+        <f t="shared" ref="F3:F13" si="1">ABS(D3-11)</f>
+        <v>10</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G13" si="2">ABS(D3-11)</f>
+        <v>10</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>60</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>80</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>120</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>120</v>
+      </c>
+      <c r="C8" s="2">
+        <v>140</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>140</v>
+      </c>
+      <c r="C9" s="2">
+        <v>160</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>80</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>160</v>
+      </c>
+      <c r="C10" s="2">
+        <v>180</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="J10" s="2">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2">
+        <v>60</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>180</v>
+      </c>
+      <c r="C11" s="2">
+        <v>200</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="J11" s="2">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2">
+        <v>80</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>200</v>
+      </c>
+      <c r="C12" s="2">
+        <v>220</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="J12" s="2">
+        <v>60</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>220</v>
+      </c>
+      <c r="C13" s="2">
+        <v>240</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="6:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC57165-C272-4096-AD65-E37635868867}">
   <dimension ref="D1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -613,318 +1207,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="21"/>
-      <c r="E1" s="21">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17">
         <v>0</v>
       </c>
-      <c r="F1" s="21">
+      <c r="F1" s="17">
         <v>1</v>
       </c>
-      <c r="G1" s="21">
+      <c r="G1" s="17">
         <v>2</v>
       </c>
-      <c r="H1" s="21">
+      <c r="H1" s="17">
         <v>3</v>
       </c>
-      <c r="I1" s="21">
+      <c r="I1" s="17">
         <v>4</v>
       </c>
-      <c r="J1" s="21">
+      <c r="J1" s="17">
         <v>5</v>
       </c>
-      <c r="K1" s="21">
+      <c r="K1" s="17">
         <v>6</v>
       </c>
-      <c r="L1" s="21">
+      <c r="L1" s="17">
         <v>7</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="17">
         <v>8</v>
       </c>
-      <c r="N1" s="21">
+      <c r="N1" s="17">
         <v>9</v>
       </c>
-      <c r="O1" s="21">
+      <c r="O1" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="22">
+      <c r="D2" s="18">
         <v>0</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="14">
         <v>0</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="14">
         <v>1</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="22">
+      <c r="D3" s="18">
         <v>1</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>3</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="14">
         <v>9</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <v>2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>4</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="14">
         <v>5</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="14">
         <v>11</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>12</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <v>3</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="14">
         <v>6</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="14">
         <v>7</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="14">
         <v>15</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>4</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="14">
         <v>8</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="14">
         <v>10</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="14">
         <v>16</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="22">
+      <c r="D7" s="18">
         <v>5</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>13</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="14">
         <v>17</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>6</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="14">
         <v>14</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="14">
         <v>18</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="14">
         <v>21</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>7</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="14">
         <v>19</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>8</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <v>20</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>9</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>10</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="22">
+      <c r="D13" s="18">
         <v>11</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="23"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
     </row>
     <row r="15" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="19"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" spans="4:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="19"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
     </row>
     <row r="17" spans="5:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E17" s="11"/>
@@ -1533,570 +2127,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0694D600-7A19-4F15-9751-D6948896EDAF}">
-  <dimension ref="A1:P13"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="12" width="10.77734375" style="1"/>
-    <col min="13" max="16" width="15.77734375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.77734375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
-    </row>
-    <row r="2" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13">
-        <f>ABS(D2-10)</f>
-        <v>10</v>
-      </c>
-      <c r="F2" s="13">
-        <f>ABS(D2-11)</f>
-        <v>11</v>
-      </c>
-      <c r="G2" s="7">
-        <f>ABS(D2-11)</f>
-        <v>11</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2">
-        <v>60</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13">
-        <f t="shared" ref="E3:E12" si="0">ABS(D3-10)</f>
-        <v>9</v>
-      </c>
-      <c r="F3" s="13">
-        <f t="shared" ref="F3:F13" si="1">ABS(D3-11)</f>
-        <v>10</v>
-      </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G13" si="2">ABS(D3-11)</f>
-        <v>10</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F4" s="13">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>40</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F5" s="13">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>60</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F6" s="13">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>80</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2">
-        <v>120</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F7" s="13">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="J7" s="2">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2">
-        <v>40</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>120</v>
-      </c>
-      <c r="C8" s="2">
-        <v>140</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F8" s="13">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="J8" s="2">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2">
-        <v>60</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>140</v>
-      </c>
-      <c r="C9" s="2">
-        <v>160</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="2">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2">
-        <v>80</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2">
-        <v>160</v>
-      </c>
-      <c r="C10" s="2">
-        <v>180</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F10" s="13">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="J10" s="2">
-        <v>40</v>
-      </c>
-      <c r="K10" s="2">
-        <v>60</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>180</v>
-      </c>
-      <c r="C11" s="2">
-        <v>200</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="J11" s="2">
-        <v>40</v>
-      </c>
-      <c r="K11" s="2">
-        <v>80</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2">
-        <v>200</v>
-      </c>
-      <c r="C12" s="2">
-        <v>220</v>
-      </c>
-      <c r="D12" s="2">
-        <v>10</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="J12" s="2">
-        <v>60</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>220</v>
-      </c>
-      <c r="C13" s="2">
-        <v>240</v>
-      </c>
-      <c r="D13" s="2">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="M1:P1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>